--- a/biology/Botanique/Liste_d'espèces_envahissantes_comestibles/Liste_d'espèces_envahissantes_comestibles.xlsx
+++ b/biology/Botanique/Liste_d'espèces_envahissantes_comestibles/Liste_d'espèces_envahissantes_comestibles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_d%27esp%C3%A8ces_envahissantes_comestibles</t>
+          <t>Liste_d'espèces_envahissantes_comestibles</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Si le fait de manger des espèces envahissantes pour lutter contre leur prolifération est une idée de plus en plus populaire[1] , elle doit être mise en place avec prudence, notamment à cause de la complexité et fragilité des écosystèmes, ainsi que des  conséquences induites sur les comportements humains[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Si le fait de manger des espèces envahissantes pour lutter contre leur prolifération est une idée de plus en plus populaire , elle doit être mise en place avec prudence, notamment à cause de la complexité et fragilité des écosystèmes, ainsi que des  conséquences induites sur les comportements humains.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_d%27esp%C3%A8ces_envahissantes_comestibles</t>
+          <t>Liste_d'espèces_envahissantes_comestibles</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Plantes envahissantes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Amarante de Palmer
 Mâcre bicorne et mâcre bicorne
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_d%27esp%C3%A8ces_envahissantes_comestibles</t>
+          <t>Liste_d'espèces_envahissantes_comestibles</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Espèces animales envahissantes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Achigan à grande bouche
 Carpe commune
